--- a/data/Condition_MeSH_comparison_by_NCTID.xlsx
+++ b/data/Condition_MeSH_comparison_by_NCTID.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarini/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarini/Downloads/More JAMIA paper docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1CCB44-F3D0-BD43-BBD7-6AEF322477F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE24227A-6ACE-9C4E-A623-BAF5015268AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5620" yWindow="-23220" windowWidth="33480" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5660" yWindow="-23220" windowWidth="33480" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
@@ -4392,9 +4392,6 @@
     <t>Studies missing condition_browse</t>
   </si>
   <si>
-    <t>same problem but this is caused by SNOMED</t>
-  </si>
-  <si>
     <t>Partial misclassification in our work. MeSH misses Orthopedics</t>
   </si>
   <si>
@@ -4563,12 +4560,6 @@
     <t>MeSH adds Pneumococcal pneumonia (category Pulmonary/Respiratory Diseases) not justified</t>
   </si>
   <si>
-    <t>Mis-ctegorization in our work. MeSH misses categories for Pulmonary complication</t>
-  </si>
-  <si>
-    <t>Mis-ctegorization in our work. MeSH includes category Pain</t>
-  </si>
-  <si>
     <t xml:space="preserve">MeSH-based method performs better </t>
   </si>
   <si>
@@ -4594,6 +4585,15 @@
   </si>
   <si>
     <t>Mesh_term</t>
+  </si>
+  <si>
+    <t>this problem is caused by SNOMED</t>
+  </si>
+  <si>
+    <t>Mis-categorization in our work. MeSH misses categories for Pulmonary complication</t>
+  </si>
+  <si>
+    <t>Mis-categorization in our work. MeSH includes category Pain</t>
   </si>
 </sst>
 </file>
@@ -4671,13 +4671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4719,14 +4719,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4749,6 +4745,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5070,37 +5070,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1427</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>1518</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="15" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15229,10 +15229,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K284" sqref="K284"/>
+      <selection pane="bottomLeft" activeCell="M284" sqref="M284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15254,51 +15254,51 @@
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1427</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>1428</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>1430</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>1429</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>1483</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>1506</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>1511</v>
+      <c r="L1" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
@@ -15934,7 +15934,7 @@
         <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -16013,7 +16013,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
@@ -16055,7 +16055,7 @@
         <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="M21" s="2">
         <v>1</v>
@@ -16763,7 +16763,7 @@
         <v>32</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>32</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -16921,7 +16921,7 @@
         <v>32</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
@@ -17074,10 +17074,10 @@
         <v>32</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>1508</v>
+        <v>1517</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -17189,14 +17189,14 @@
       <c r="J51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>1481</v>
+      <c r="K51" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -17494,7 +17494,7 @@
         <v>32</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -17865,14 +17865,14 @@
       <c r="J69" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>1481</v>
+      <c r="K69" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -17948,7 +17948,7 @@
         <v>32</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -17971,7 +17971,7 @@
       <c r="E72" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="16" t="s">
         <v>421</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -17980,17 +17980,17 @@
       <c r="H72" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="16" t="s">
         <v>423</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1451</v>
+        <v>1516</v>
       </c>
       <c r="M72"/>
     </row>
@@ -18215,7 +18215,7 @@
         <v>32</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -18479,13 +18479,13 @@
         <v>32</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -18820,7 +18820,7 @@
         <v>32</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -19084,7 +19084,7 @@
         <v>32</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M101" s="2">
         <v>1</v>
@@ -19385,7 +19385,7 @@
         <v>32</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="M109" s="2">
         <v>1</v>
@@ -19423,11 +19423,11 @@
       <c r="J110" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="K110" s="9" t="s">
-        <v>1481</v>
+      <c r="K110" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -19647,11 +19647,11 @@
       <c r="J116" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="K116" s="9" t="s">
-        <v>1481</v>
+      <c r="K116" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -20060,7 +20060,7 @@
         <v>32</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="M127" s="2">
         <v>1</v>
@@ -20102,7 +20102,7 @@
         <v>32</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="M128" s="2">
         <v>1</v>
@@ -20181,7 +20181,7 @@
         <v>32</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="M130" s="2">
         <v>1</v>
@@ -20260,13 +20260,13 @@
         <v>32</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="32" x14ac:dyDescent="0.2">
@@ -20342,7 +20342,7 @@
         <v>32</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="M134" s="2">
         <v>1</v>
@@ -21086,8 +21086,8 @@
       <c r="K154" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L154" s="10" t="s">
-        <v>1494</v>
+      <c r="L154" s="8" t="s">
+        <v>1493</v>
       </c>
       <c r="M154" s="2">
         <v>1</v>
@@ -21388,10 +21388,10 @@
         <v>32</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O162">
         <v>1</v>
@@ -21618,10 +21618,10 @@
         <v>32</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O168">
         <v>1</v>
@@ -22181,9 +22181,9 @@
         <v>32</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="M183" s="10"/>
+        <v>1471</v>
+      </c>
+      <c r="M183" s="8"/>
       <c r="N183">
         <v>1</v>
       </c>
@@ -22664,11 +22664,11 @@
       <c r="J196" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="K196" s="9" t="s">
-        <v>1481</v>
+      <c r="K196" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -23336,7 +23336,7 @@
         <v>32</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="M214" s="2">
         <v>1</v>
@@ -23378,7 +23378,7 @@
         <v>32</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="M215" s="2">
         <v>1</v>
@@ -23494,10 +23494,10 @@
         <v>32</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O218">
         <v>1</v>
@@ -24057,7 +24057,7 @@
         <v>32</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="M233" s="2">
         <v>1</v>
@@ -24210,7 +24210,7 @@
         <v>32</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="N237">
         <v>1</v>
@@ -24733,13 +24733,13 @@
         <v>32</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="N251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="32" x14ac:dyDescent="0.2">
@@ -25000,10 +25000,10 @@
         <v>32</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O258">
         <v>1</v>
@@ -25119,7 +25119,7 @@
         <v>32</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N261">
         <v>1</v>
@@ -25194,14 +25194,14 @@
       <c r="J263" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="K263" s="9" t="s">
-        <v>1481</v>
+      <c r="K263" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L263" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -25314,7 +25314,7 @@
         <v>32</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N266">
         <v>1</v>
@@ -25467,7 +25467,7 @@
         <v>32</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="N270">
         <v>1</v>
@@ -25690,14 +25690,14 @@
       <c r="J276" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="K276" s="9" t="s">
-        <v>1481</v>
+      <c r="K276" s="7" t="s">
+        <v>1480</v>
       </c>
       <c r="L276" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M276" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="M276" s="2" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="277" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -25884,7 +25884,7 @@
         <v>32</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="M281" s="2">
         <v>1</v>
@@ -25926,7 +25926,7 @@
         <v>32</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="M282" s="2">
         <v>1</v>
@@ -25934,7 +25934,7 @@
     </row>
     <row r="284" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K284" s="2" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="M284" s="2">
         <f>SUBTOTAL(9,M2:M283)</f>
@@ -25973,91 +25973,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E1" s="8"/>
+      <c r="B1" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1431</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>1432</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -26065,11 +26065,11 @@
       <c r="A9" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -26077,128 +26077,128 @@
       <c r="A10" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>1333</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>1486</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>1505</v>
+      <c r="D22" s="9" t="s">
+        <v>1504</v>
       </c>
       <c r="E22" s="4"/>
     </row>
